--- a/Munish_Sharma_DAY_05_17TH_OCTOBER_2016.xlsx
+++ b/Munish_Sharma_DAY_05_17TH_OCTOBER_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DAY_05" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>S.No</t>
   </si>
@@ -75,13 +75,442 @@
   </si>
   <si>
     <t>Error  Solution Document</t>
+  </si>
+  <si>
+    <t>1. Adding Dependencies for implementing Spring Hibernate ORM with H2 Database</t>
+  </si>
+  <si>
+    <t>Adding Application-context.xml and connect it with web.xml or using java Configuration class in the backend project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Beans for DataSource, SessionFactory, TransactionManager in Application-context.xml file or Configuration class. After successful configuration, a table Product should get created in H2 database.</t>
+  </si>
+  <si>
+    <t>create table in database using hibernate</t>
+  </si>
+  <si>
+    <t>http://websystique.com/springmvc/spring-4-mvc-and-hibernate4-</t>
+  </si>
+  <si>
+    <t>http://www.journaldev.com/3531/spring-mvc-hibernate-mysql-integration-crud-example-tutorial?</t>
+  </si>
+  <si>
+    <t>45 Min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>50 Min</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Table could be created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem in the Hibernate configuration </t>
+  </si>
+  <si>
+    <t>The table was created but records were not inserted into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error  could to store data in the h2 database in hibernateconfiguration file </t>
+  </si>
+  <si>
+    <t>import hibernate5  package instead of hibernate 4</t>
+  </si>
+  <si>
+    <t>error in table creation</t>
+  </si>
+  <si>
+    <t>problem was in hibernateconfiguration file should be base package builder.scanPackages("ms");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP Status 500 - Servlet.init() for servlet spring-dispatcher threw exception
+</t>
+  </si>
+  <si>
+    <t>change productdao class  to productdao interface</t>
+  </si>
+  <si>
+    <t>HTTP Status 404 The requested resource is not available.</t>
+  </si>
+  <si>
+    <t>problem was in the  dispatcher</t>
+  </si>
+  <si>
+    <t>HTTP Status 500 - Request processing failed; nested exception is java.lang.IllegalArgumentException: org.hibernate.hql.internal.ast.QuerySyntaxException: PRODUCTMODEL is not mapped [from PRODUCTMODEL]</t>
+  </si>
+  <si>
+    <t>Should be written as ProductModel</t>
+  </si>
+  <si>
+    <t>How to link web.xml and application context configuration file</t>
+  </si>
+  <si>
+    <t>What is the architecture of hibernate</t>
+  </si>
+  <si>
+    <t>How to integrate hibernate with spring?</t>
+  </si>
+  <si>
+    <t>Why only H2 database</t>
+  </si>
+  <si>
+    <t>by using context-path</t>
+  </si>
+  <si>
+    <t>create applicationContext.xml 珯굵le It contains information of DataSource,</t>
+  </si>
+  <si>
+    <t>SessionFactory etc.</t>
+  </si>
+  <si>
+    <t>create Exanmple.java  It is the persistent class</t>
+  </si>
+  <si>
+    <t>create example.hbm.xml</t>
+  </si>
+  <si>
+    <t>create ExampleDao.java It is the dao class that uses HibernateTemplate.</t>
+  </si>
+  <si>
+    <t>create Insertexample.java It calls methods of ExampleDao class.</t>
+  </si>
+  <si>
+    <t>Elements of Hibernate Architecture</t>
+  </si>
+  <si>
+    <t>1.    SessionFactory</t>
+  </si>
+  <si>
+    <t>2.    Session</t>
+  </si>
+  <si>
+    <t>3.    Transaction</t>
+  </si>
+  <si>
+    <t>4.    ConnectionProvider</t>
+  </si>
+  <si>
+    <t>5.    TransactionFactory</t>
+  </si>
+  <si>
+    <t>.  Advantages of using H2</t>
+  </si>
+  <si>
+    <r>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Full Unicode support including UPPER() and LOWER().</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streaming API for BLOB and CLOB data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fulltext search.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Multiple connections.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>User defined functions and triggers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database file encryption.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reading and writing CSV files (this feature can be used outside the database as well).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Referential integrity and check constraints.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Better data type and SQL support.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>j)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In-memory databases, read-only databases, linked tables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Better compatibility with other databases which simplifies porting applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Possibly better performance (so far for read operations).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server mode (accessing a database on a different machine over TCP/IP).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +553,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +618,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -230,6 +671,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -505,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,70 +1017,101 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>42660</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
@@ -633,8 +1120,11 @@
       <c r="D9" s="22"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -642,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,13 +1161,19 @@
     </row>
     <row r="2" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="11"/>
     </row>
@@ -689,23 +1185,42 @@
     </row>
     <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="12"/>
@@ -718,14 +1233,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
@@ -745,114 +1262,208 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" location="elements" display="http://www.javatpoint.com/hibernate-architecture - elements"/>
+    <hyperlink ref="B4" r:id="rId2" location="e1" display="http://www.javatpoint.com/hibernate-architecture - e1"/>
+    <hyperlink ref="B5" r:id="rId3" location="e2" display="http://www.javatpoint.com/hibernate-architecture - e2"/>
+    <hyperlink ref="B6" r:id="rId4" location="e3" display="http://www.javatpoint.com/hibernate-architecture - e3"/>
+    <hyperlink ref="B7" r:id="rId5" location="e4" display="http://www.javatpoint.com/hibernate-architecture - e4"/>
+    <hyperlink ref="B8" r:id="rId6" location="e5" display="http://www.javatpoint.com/hibernate-architecture - e5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>